--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -3329,10 +3329,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112111680</v>
+        <v>112111665</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3345,21 +3345,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554111.3423843421</v>
+        <v>553817.5168682858</v>
       </c>
       <c r="R25" t="n">
-        <v>6956617.245754472</v>
+        <v>6956613.349017856</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112111665</v>
+        <v>112111666</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3481,10 +3481,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>553817.5168682858</v>
+        <v>553943.5691689024</v>
       </c>
       <c r="R26" t="n">
-        <v>6956613.349017856</v>
+        <v>6956459.040529874</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112111666</v>
+        <v>112111680</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3569,21 +3569,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>553943.5691689024</v>
+        <v>554111.3423843421</v>
       </c>
       <c r="R27" t="n">
-        <v>6956459.040529874</v>
+        <v>6956617.245754472</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>

--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112111651</v>
+        <v>112111682</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554183.4449385916</v>
+        <v>554049.0188903509</v>
       </c>
       <c r="R2" t="n">
-        <v>6956477.193299389</v>
+        <v>6956413.535453935</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112111648</v>
+        <v>112111669</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,38 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554064.0874529384</v>
+        <v>553925.5367845397</v>
       </c>
       <c r="R3" t="n">
-        <v>6956642.607263782</v>
+        <v>6956634.833436347</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112111659</v>
+        <v>112111673</v>
       </c>
       <c r="B4" t="n">
-        <v>90854</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>553803.8307935991</v>
+        <v>553806.2234476493</v>
       </c>
       <c r="R4" t="n">
-        <v>6956748.395822751</v>
+        <v>6956742.473957137</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111667</v>
+        <v>112111670</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1074,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553962.5725415739</v>
+        <v>553908.4834407156</v>
       </c>
       <c r="R5" t="n">
-        <v>6956448.345960643</v>
+        <v>6956638.681242205</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1146,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111674</v>
+        <v>112111661</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1186,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554218.6660158783</v>
+        <v>553991.9198144467</v>
       </c>
       <c r="R6" t="n">
-        <v>6956513.541415922</v>
+        <v>6956254.84315605</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111636</v>
+        <v>112111667</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1298,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>553867.4492635762</v>
+        <v>553962.5725415739</v>
       </c>
       <c r="R7" t="n">
-        <v>6956704.957526781</v>
+        <v>6956448.345960643</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111676</v>
+        <v>112111679</v>
       </c>
       <c r="B8" t="n">
         <v>89423</v>
@@ -1410,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554108.7025419916</v>
+        <v>554102.7855456885</v>
       </c>
       <c r="R8" t="n">
-        <v>6956442.488665133</v>
+        <v>6956607.016989377</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112111682</v>
+        <v>112111674</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554049.0188903509</v>
+        <v>554218.6660158783</v>
       </c>
       <c r="R9" t="n">
-        <v>6956413.535453935</v>
+        <v>6956513.541415922</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112111642</v>
+        <v>112111678</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,32 +1592,24 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
@@ -1714,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112111683</v>
+        <v>112111651</v>
       </c>
       <c r="B11" t="n">
-        <v>89965</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1726,38 +1700,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>553872.6836742816</v>
+        <v>554183.4449385916</v>
       </c>
       <c r="R11" t="n">
-        <v>6956525.290303065</v>
+        <v>6956477.193299389</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,6 +1778,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1826,10 +1809,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112111647</v>
+        <v>112111654</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1842,38 +1825,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554072.04225406</v>
+        <v>553962.5875621027</v>
       </c>
       <c r="R12" t="n">
-        <v>6956661.5383526</v>
+        <v>6956447.429053072</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1916,11 +1895,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1947,7 +1921,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112111670</v>
+        <v>112111662</v>
       </c>
       <c r="B13" t="n">
         <v>78578</v>
@@ -1987,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553908.4834407156</v>
+        <v>553886.3683922328</v>
       </c>
       <c r="R13" t="n">
-        <v>6956638.681242205</v>
+        <v>6956306.312492835</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2059,10 +2033,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112111662</v>
+        <v>112111642</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2075,34 +2049,42 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>553886.3683922328</v>
+        <v>553780.3339120841</v>
       </c>
       <c r="R14" t="n">
-        <v>6956306.312492835</v>
+        <v>6956725.085283451</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2171,10 +2153,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112111637</v>
+        <v>112111680</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,21 +2169,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2211,10 +2193,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554149.5307134307</v>
+        <v>554111.3423843421</v>
       </c>
       <c r="R15" t="n">
-        <v>6956528.912619712</v>
+        <v>6956617.245754472</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2283,10 +2265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112111663</v>
+        <v>112111636</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2299,21 +2281,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2323,10 +2305,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>553785.4663255359</v>
+        <v>553867.4492635762</v>
       </c>
       <c r="R16" t="n">
-        <v>6956467.002430637</v>
+        <v>6956704.957526781</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2395,7 +2377,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112111639</v>
+        <v>112111645</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2428,37 +2410,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554134.4494995108</v>
+        <v>553975.6303213069</v>
       </c>
       <c r="R17" t="n">
-        <v>6956468.591977005</v>
+        <v>6956688.38685713</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2501,6 +2467,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2527,7 +2498,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112111661</v>
+        <v>112111665</v>
       </c>
       <c r="B18" t="n">
         <v>78578</v>
@@ -2567,10 +2538,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>553991.9198144467</v>
+        <v>553817.5168682858</v>
       </c>
       <c r="R18" t="n">
-        <v>6956254.84315605</v>
+        <v>6956613.349017856</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2639,10 +2610,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112111653</v>
+        <v>112111666</v>
       </c>
       <c r="B19" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2651,25 +2622,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2679,10 +2650,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>553911.3504429478</v>
+        <v>553943.5691689024</v>
       </c>
       <c r="R19" t="n">
-        <v>6956631.849907926</v>
+        <v>6956459.040529874</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2751,10 +2722,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112111678</v>
+        <v>112111683</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>89965</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2763,25 +2734,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>760</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2791,10 +2762,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>553780.3339120841</v>
+        <v>553872.6836742816</v>
       </c>
       <c r="R20" t="n">
-        <v>6956725.085283451</v>
+        <v>6956525.290303065</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2863,7 +2834,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112111645</v>
+        <v>112111648</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2907,10 +2878,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>553975.6303213069</v>
+        <v>554064.0874529384</v>
       </c>
       <c r="R21" t="n">
-        <v>6956688.38685713</v>
+        <v>6956642.607263782</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2984,7 +2955,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112111671</v>
+        <v>112111663</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -3024,10 +2995,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>553876.8388841653</v>
+        <v>553785.4663255359</v>
       </c>
       <c r="R22" t="n">
-        <v>6956664.300728926</v>
+        <v>6956467.002430637</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3217,10 +3188,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112111679</v>
+        <v>112111653</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>78605</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3229,25 +3200,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3257,10 +3228,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554102.7855456885</v>
+        <v>553911.3504429478</v>
       </c>
       <c r="R24" t="n">
-        <v>6956607.016989377</v>
+        <v>6956631.849907926</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3329,7 +3300,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112111665</v>
+        <v>112111671</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3369,10 +3340,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>553817.5168682858</v>
+        <v>553876.8388841653</v>
       </c>
       <c r="R25" t="n">
-        <v>6956613.349017856</v>
+        <v>6956664.300728926</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3441,10 +3412,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112111666</v>
+        <v>112111676</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3457,21 +3428,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3481,10 +3452,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>553943.5691689024</v>
+        <v>554108.7025419916</v>
       </c>
       <c r="R26" t="n">
-        <v>6956459.040529874</v>
+        <v>6956442.488665133</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3553,10 +3524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112111680</v>
+        <v>112111647</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3569,34 +3540,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554111.3423843421</v>
+        <v>554072.04225406</v>
       </c>
       <c r="R27" t="n">
-        <v>6956617.245754472</v>
+        <v>6956661.5383526</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3639,6 +3614,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3665,10 +3645,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112111669</v>
+        <v>112111655</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3681,21 +3661,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3705,10 +3685,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>553925.5367845397</v>
+        <v>554216.844734316</v>
       </c>
       <c r="R28" t="n">
-        <v>6956634.833436347</v>
+        <v>6956512.594300169</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3777,10 +3757,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112111640</v>
+        <v>112111681</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3793,38 +3773,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554116.5295570237</v>
+        <v>554129.4131192062</v>
       </c>
       <c r="R29" t="n">
-        <v>6956469.214678328</v>
+        <v>6956551.51021299</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3867,11 +3843,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3898,10 +3869,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112111673</v>
+        <v>112111637</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3914,21 +3885,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3938,10 +3909,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>553806.2234476493</v>
+        <v>554149.5307134307</v>
       </c>
       <c r="R30" t="n">
-        <v>6956742.473957137</v>
+        <v>6956528.912619712</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4010,10 +3981,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112111655</v>
+        <v>112111634</v>
       </c>
       <c r="B31" t="n">
-        <v>78579</v>
+        <v>89369</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4022,25 +3993,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>5447</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4050,10 +4021,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>554216.844734316</v>
+        <v>554143.5323877039</v>
       </c>
       <c r="R31" t="n">
-        <v>6956512.594300169</v>
+        <v>6956530.648284359</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4122,10 +4093,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112111681</v>
+        <v>112111650</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4138,34 +4109,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554129.4131192062</v>
+        <v>554121.013562932</v>
       </c>
       <c r="R32" t="n">
-        <v>6956551.51021299</v>
+        <v>6956587.5984942</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4208,6 +4183,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4234,10 +4214,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112111634</v>
+        <v>112111640</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4246,38 +4226,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>554143.5323877039</v>
+        <v>554116.5295570237</v>
       </c>
       <c r="R33" t="n">
-        <v>6956530.648284359</v>
+        <v>6956469.214678328</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4320,6 +4304,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4346,10 +4335,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112111654</v>
+        <v>112111639</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4362,34 +4351,54 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>553962.5875621027</v>
+        <v>554134.4494995108</v>
       </c>
       <c r="R34" t="n">
-        <v>6956447.429053072</v>
+        <v>6956468.591977005</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4458,10 +4467,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112111650</v>
+        <v>112111659</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>90854</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4474,38 +4483,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>2079</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>554121.013562932</v>
+        <v>553803.8307935991</v>
       </c>
       <c r="R35" t="n">
-        <v>6956587.5984942</v>
+        <v>6956748.395822751</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4548,11 +4553,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112111682</v>
+        <v>112111642</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554049.0188903509</v>
+        <v>553780</v>
       </c>
       <c r="R2" t="n">
-        <v>6956413.535453935</v>
+        <v>6956725</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +761,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +790,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112111669</v>
+        <v>112111665</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -832,10 +830,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553925.5367845397</v>
+        <v>553818</v>
       </c>
       <c r="R3" t="n">
-        <v>6956634.833436347</v>
+        <v>6956613</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,19 +863,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112111673</v>
+        <v>112111643</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,34 +908,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>553806.2234476493</v>
+        <v>553753</v>
       </c>
       <c r="R4" t="n">
-        <v>6956742.473957137</v>
+        <v>6956755</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -977,19 +969,14 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1003,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111670</v>
+        <v>112111637</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1019,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1043,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553908.4834407156</v>
+        <v>554150</v>
       </c>
       <c r="R5" t="n">
-        <v>6956638.681242205</v>
+        <v>6956529</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,19 +1076,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1105,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111661</v>
+        <v>112111650</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,34 +1121,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>553991.9198144467</v>
+        <v>554121</v>
       </c>
       <c r="R6" t="n">
-        <v>6956254.84315605</v>
+        <v>6956588</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1201,19 +1182,14 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1216,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111667</v>
+        <v>112111653</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1228,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1256,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>553962.5725415739</v>
+        <v>553911</v>
       </c>
       <c r="R7" t="n">
-        <v>6956448.345960643</v>
+        <v>6956632</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1313,19 +1289,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,7 +1318,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111679</v>
+        <v>112111681</v>
       </c>
       <c r="B8" t="n">
         <v>89423</v>
@@ -1392,10 +1358,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554102.7855456885</v>
+        <v>554129</v>
       </c>
       <c r="R8" t="n">
-        <v>6956607.016989377</v>
+        <v>6956552</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1425,19 +1391,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,7 +1420,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112111674</v>
+        <v>112111663</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1504,10 +1460,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554218.6660158783</v>
+        <v>553785</v>
       </c>
       <c r="R9" t="n">
-        <v>6956513.541415922</v>
+        <v>6956467</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1537,19 +1493,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,10 +1522,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112111678</v>
+        <v>112111640</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,34 +1538,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>553780.3339120841</v>
+        <v>554117</v>
       </c>
       <c r="R10" t="n">
-        <v>6956725.085283451</v>
+        <v>6956469</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1649,19 +1599,14 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112111651</v>
+        <v>112111678</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,38 +1649,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554183.4449385916</v>
+        <v>553780</v>
       </c>
       <c r="R11" t="n">
-        <v>6956477.193299389</v>
+        <v>6956725</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1765,24 +1706,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1809,10 +1735,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112111654</v>
+        <v>112111651</v>
       </c>
       <c r="B12" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1825,34 +1751,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>553962.5875621027</v>
+        <v>554183</v>
       </c>
       <c r="R12" t="n">
-        <v>6956447.429053072</v>
+        <v>6956477</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1882,19 +1812,14 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1921,10 +1846,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112111662</v>
+        <v>112111676</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1937,21 +1862,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1961,10 +1886,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553886.3683922328</v>
+        <v>554109</v>
       </c>
       <c r="R13" t="n">
-        <v>6956306.312492835</v>
+        <v>6956442</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1994,19 +1919,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2033,10 +1948,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112111642</v>
+        <v>112111680</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2049,42 +1964,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>553780.3339120841</v>
+        <v>554111</v>
       </c>
       <c r="R14" t="n">
-        <v>6956725.085283451</v>
+        <v>6956617</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2114,19 +2021,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2153,10 +2050,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112111680</v>
+        <v>112111666</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2169,21 +2066,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2193,10 +2090,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554111.3423843421</v>
+        <v>553944</v>
       </c>
       <c r="R15" t="n">
-        <v>6956617.245754472</v>
+        <v>6956459</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2226,19 +2123,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2265,10 +2152,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112111636</v>
+        <v>112111662</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2281,21 +2168,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2305,10 +2192,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>553867.4492635762</v>
+        <v>553886</v>
       </c>
       <c r="R16" t="n">
-        <v>6956704.957526781</v>
+        <v>6956306</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2338,19 +2225,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2377,7 +2254,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112111645</v>
+        <v>112111647</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2421,10 +2298,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>553975.6303213069</v>
+        <v>554072</v>
       </c>
       <c r="R17" t="n">
-        <v>6956688.38685713</v>
+        <v>6956662</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2454,19 +2331,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2498,10 +2365,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112111665</v>
+        <v>112111639</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2514,34 +2381,54 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>553817.5168682858</v>
+        <v>554134</v>
       </c>
       <c r="R18" t="n">
-        <v>6956613.349017856</v>
+        <v>6956469</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2571,19 +2458,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2610,10 +2487,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112111666</v>
+        <v>112111682</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2626,21 +2503,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2650,10 +2527,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>553943.5691689024</v>
+        <v>554049</v>
       </c>
       <c r="R19" t="n">
-        <v>6956459.040529874</v>
+        <v>6956414</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2683,19 +2560,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2722,10 +2589,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112111683</v>
+        <v>112111673</v>
       </c>
       <c r="B20" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2734,25 +2601,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2762,10 +2629,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>553872.6836742816</v>
+        <v>553806</v>
       </c>
       <c r="R20" t="n">
-        <v>6956525.290303065</v>
+        <v>6956742</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2795,19 +2662,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2834,10 +2691,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112111648</v>
+        <v>112111636</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2850,38 +2707,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554064.0874529384</v>
+        <v>553867</v>
       </c>
       <c r="R21" t="n">
-        <v>6956642.607263782</v>
+        <v>6956705</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2911,24 +2764,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2955,10 +2793,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112111663</v>
+        <v>112111659</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>90854</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2971,21 +2809,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>2079</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2995,10 +2833,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>553785.4663255359</v>
+        <v>553804</v>
       </c>
       <c r="R22" t="n">
-        <v>6956467.002430637</v>
+        <v>6956748</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3028,19 +2866,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3067,7 +2895,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112111643</v>
+        <v>112111645</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3111,10 +2939,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>553752.7554011116</v>
+        <v>553976</v>
       </c>
       <c r="R23" t="n">
-        <v>6956754.898419234</v>
+        <v>6956688</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3144,19 +2972,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3188,10 +3006,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112111653</v>
+        <v>112111671</v>
       </c>
       <c r="B24" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3200,25 +3018,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3228,10 +3046,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>553911.3504429478</v>
+        <v>553877</v>
       </c>
       <c r="R24" t="n">
-        <v>6956631.849907926</v>
+        <v>6956664</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3261,19 +3079,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3300,10 +3108,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112111671</v>
+        <v>112111683</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3312,25 +3120,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3340,10 +3148,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>553876.8388841653</v>
+        <v>553873</v>
       </c>
       <c r="R25" t="n">
-        <v>6956664.300728926</v>
+        <v>6956525</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3373,19 +3181,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3412,10 +3210,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112111676</v>
+        <v>112111674</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3428,21 +3226,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3452,10 +3250,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554108.7025419916</v>
+        <v>554219</v>
       </c>
       <c r="R26" t="n">
-        <v>6956442.488665133</v>
+        <v>6956514</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3485,19 +3283,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3524,10 +3312,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112111647</v>
+        <v>112111634</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3536,42 +3324,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554072.04225406</v>
+        <v>554144</v>
       </c>
       <c r="R27" t="n">
-        <v>6956661.5383526</v>
+        <v>6956531</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3601,24 +3385,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3645,10 +3414,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112111655</v>
+        <v>112111661</v>
       </c>
       <c r="B28" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3661,21 +3430,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3685,10 +3454,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554216.844734316</v>
+        <v>553992</v>
       </c>
       <c r="R28" t="n">
-        <v>6956512.594300169</v>
+        <v>6956255</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3718,19 +3487,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3757,10 +3516,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112111681</v>
+        <v>112111655</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3773,21 +3532,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3797,10 +3556,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554129.4131192062</v>
+        <v>554217</v>
       </c>
       <c r="R29" t="n">
-        <v>6956551.51021299</v>
+        <v>6956513</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3830,19 +3589,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3869,10 +3618,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112111637</v>
+        <v>112111648</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3885,34 +3634,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554149.5307134307</v>
+        <v>554064</v>
       </c>
       <c r="R30" t="n">
-        <v>6956528.912619712</v>
+        <v>6956643</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3942,19 +3695,14 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3981,10 +3729,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112111634</v>
+        <v>112111667</v>
       </c>
       <c r="B31" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3993,25 +3741,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4021,10 +3769,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>554143.5323877039</v>
+        <v>553963</v>
       </c>
       <c r="R31" t="n">
-        <v>6956530.648284359</v>
+        <v>6956448</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4054,19 +3802,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4093,10 +3831,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112111650</v>
+        <v>112111679</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4109,38 +3847,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554121.013562932</v>
+        <v>554103</v>
       </c>
       <c r="R32" t="n">
-        <v>6956587.5984942</v>
+        <v>6956607</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4170,24 +3904,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4214,10 +3933,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112111640</v>
+        <v>112111669</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4230,38 +3949,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>554116.5295570237</v>
+        <v>553926</v>
       </c>
       <c r="R33" t="n">
-        <v>6956469.214678328</v>
+        <v>6956635</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4291,24 +4006,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4335,10 +4035,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112111639</v>
+        <v>112111654</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4351,54 +4051,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>554134.4494995108</v>
+        <v>553963</v>
       </c>
       <c r="R34" t="n">
-        <v>6956468.591977005</v>
+        <v>6956447</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4428,19 +4108,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4467,10 +4137,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112111659</v>
+        <v>112111670</v>
       </c>
       <c r="B35" t="n">
-        <v>90854</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4483,21 +4153,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2079</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4507,10 +4177,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>553803.8307935991</v>
+        <v>553908</v>
       </c>
       <c r="R35" t="n">
-        <v>6956748.395822751</v>
+        <v>6956639</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4540,19 +4210,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112111642</v>
+        <v>112111678</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,32 +696,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
@@ -790,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112111665</v>
+        <v>112111676</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>89557</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -806,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -830,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553818</v>
+        <v>554109</v>
       </c>
       <c r="R3" t="n">
-        <v>6956613</v>
+        <v>6956442</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112111643</v>
+        <v>112111667</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,38 +900,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>553753</v>
+        <v>553963</v>
       </c>
       <c r="R4" t="n">
-        <v>6956755</v>
+        <v>6956448</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -972,11 +960,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1003,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111637</v>
+        <v>112111661</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>78699</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1019,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1043,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554150</v>
+        <v>553992</v>
       </c>
       <c r="R5" t="n">
-        <v>6956529</v>
+        <v>6956255</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1108,7 +1091,7 @@
         <v>112111650</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1216,10 +1199,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111653</v>
+        <v>112111679</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>89557</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1228,25 +1211,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1256,10 +1239,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>553911</v>
+        <v>554103</v>
       </c>
       <c r="R7" t="n">
-        <v>6956632</v>
+        <v>6956607</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1318,10 +1301,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111681</v>
+        <v>112111674</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>78699</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1334,21 +1317,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1358,10 +1341,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554129</v>
+        <v>554219</v>
       </c>
       <c r="R8" t="n">
-        <v>6956552</v>
+        <v>6956514</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1420,10 +1403,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112111663</v>
+        <v>112111653</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>78726</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1432,25 +1415,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1460,10 +1443,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>553785</v>
+        <v>553911</v>
       </c>
       <c r="R9" t="n">
-        <v>6956467</v>
+        <v>6956632</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1522,10 +1505,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112111640</v>
+        <v>112111680</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1538,38 +1521,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554117</v>
+        <v>554111</v>
       </c>
       <c r="R10" t="n">
-        <v>6956469</v>
+        <v>6956617</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1602,11 +1581,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1633,10 +1607,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112111678</v>
+        <v>112111643</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1649,34 +1623,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>553780</v>
+        <v>553753</v>
       </c>
       <c r="R11" t="n">
-        <v>6956725</v>
+        <v>6956755</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1709,6 +1687,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1735,10 +1718,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112111651</v>
+        <v>112111648</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1779,10 +1762,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554183</v>
+        <v>554064</v>
       </c>
       <c r="R12" t="n">
-        <v>6956477</v>
+        <v>6956643</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1846,10 +1829,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112111676</v>
+        <v>112111670</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>78699</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1862,21 +1845,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1886,10 +1869,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554109</v>
+        <v>553908</v>
       </c>
       <c r="R13" t="n">
-        <v>6956442</v>
+        <v>6956639</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1948,10 +1931,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112111680</v>
+        <v>112111639</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1964,34 +1947,54 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554111</v>
+        <v>554134</v>
       </c>
       <c r="R14" t="n">
-        <v>6956617</v>
+        <v>6956469</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2050,10 +2053,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112111666</v>
+        <v>112111637</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>89539</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2066,21 +2069,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2090,10 +2093,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>553944</v>
+        <v>554150</v>
       </c>
       <c r="R15" t="n">
-        <v>6956459</v>
+        <v>6956529</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2152,10 +2155,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112111662</v>
+        <v>112111647</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2168,34 +2171,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>553886</v>
+        <v>554072</v>
       </c>
       <c r="R16" t="n">
-        <v>6956306</v>
+        <v>6956662</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2228,6 +2235,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2254,10 +2266,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112111647</v>
+        <v>112111671</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2270,38 +2282,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554072</v>
+        <v>553877</v>
       </c>
       <c r="R17" t="n">
-        <v>6956662</v>
+        <v>6956664</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2334,11 +2342,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2365,10 +2368,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112111639</v>
+        <v>112111683</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>90099</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2377,58 +2380,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554134</v>
+        <v>553873</v>
       </c>
       <c r="R18" t="n">
-        <v>6956469</v>
+        <v>6956525</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2490,7 +2473,7 @@
         <v>112111682</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2589,10 +2572,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112111673</v>
+        <v>112111666</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2629,10 +2612,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>553806</v>
+        <v>553944</v>
       </c>
       <c r="R20" t="n">
-        <v>6956742</v>
+        <v>6956459</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,10 +2674,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112111636</v>
+        <v>112111663</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>78699</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2707,21 +2690,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2731,10 +2714,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>553867</v>
+        <v>553785</v>
       </c>
       <c r="R21" t="n">
-        <v>6956705</v>
+        <v>6956467</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2793,10 +2776,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112111659</v>
+        <v>112111645</v>
       </c>
       <c r="B22" t="n">
-        <v>90854</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2809,34 +2792,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>553804</v>
+        <v>553976</v>
       </c>
       <c r="R22" t="n">
-        <v>6956748</v>
+        <v>6956688</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2869,6 +2856,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2895,10 +2887,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112111645</v>
+        <v>112111654</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>78700</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2911,38 +2903,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>553976</v>
+        <v>553963</v>
       </c>
       <c r="R23" t="n">
-        <v>6956688</v>
+        <v>6956447</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2975,11 +2963,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3006,10 +2989,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112111671</v>
+        <v>112111636</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>89539</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3022,21 +3005,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3046,10 +3029,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>553877</v>
+        <v>553867</v>
       </c>
       <c r="R24" t="n">
-        <v>6956664</v>
+        <v>6956705</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3108,10 +3091,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112111683</v>
+        <v>112111659</v>
       </c>
       <c r="B25" t="n">
-        <v>89965</v>
+        <v>90988</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3120,25 +3103,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>760</v>
+        <v>2079</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3148,10 +3131,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>553873</v>
+        <v>553804</v>
       </c>
       <c r="R25" t="n">
-        <v>6956525</v>
+        <v>6956748</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3210,10 +3193,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112111674</v>
+        <v>112111651</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3226,34 +3209,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554219</v>
+        <v>554183</v>
       </c>
       <c r="R26" t="n">
-        <v>6956514</v>
+        <v>6956477</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3286,6 +3273,11 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3312,10 +3304,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112111634</v>
+        <v>112111669</v>
       </c>
       <c r="B27" t="n">
-        <v>89369</v>
+        <v>78699</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3324,25 +3316,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3352,10 +3344,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554144</v>
+        <v>553926</v>
       </c>
       <c r="R27" t="n">
-        <v>6956531</v>
+        <v>6956635</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3414,10 +3406,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112111661</v>
+        <v>112111673</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3454,10 +3446,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>553992</v>
+        <v>553806</v>
       </c>
       <c r="R28" t="n">
-        <v>6956255</v>
+        <v>6956742</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3516,10 +3508,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112111655</v>
+        <v>112111634</v>
       </c>
       <c r="B29" t="n">
-        <v>78579</v>
+        <v>89503</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3528,25 +3520,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2081</v>
+        <v>5447</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3556,10 +3548,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554217</v>
+        <v>554144</v>
       </c>
       <c r="R29" t="n">
-        <v>6956513</v>
+        <v>6956531</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3618,10 +3610,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112111648</v>
+        <v>112111655</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>78700</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3634,38 +3626,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554064</v>
+        <v>554217</v>
       </c>
       <c r="R30" t="n">
-        <v>6956643</v>
+        <v>6956513</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3698,11 +3686,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3729,10 +3712,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112111667</v>
+        <v>112111642</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3745,34 +3728,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>553963</v>
+        <v>553780</v>
       </c>
       <c r="R31" t="n">
-        <v>6956448</v>
+        <v>6956725</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3831,10 +3822,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112111679</v>
+        <v>112111640</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3847,34 +3838,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554103</v>
+        <v>554117</v>
       </c>
       <c r="R32" t="n">
-        <v>6956607</v>
+        <v>6956469</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3907,6 +3902,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3933,10 +3933,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112111669</v>
+        <v>112111662</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>553926</v>
+        <v>553886</v>
       </c>
       <c r="R33" t="n">
-        <v>6956635</v>
+        <v>6956306</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4035,10 +4035,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112111654</v>
+        <v>112111665</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>78699</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4051,21 +4051,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4075,10 +4075,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>553963</v>
+        <v>553818</v>
       </c>
       <c r="R34" t="n">
-        <v>6956447</v>
+        <v>6956613</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112111670</v>
+        <v>112111681</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>89557</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4153,21 +4153,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>553908</v>
+        <v>554129</v>
       </c>
       <c r="R35" t="n">
-        <v>6956639</v>
+        <v>6956552</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>

--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -3193,10 +3193,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112111651</v>
+        <v>112111673</v>
       </c>
       <c r="B26" t="n">
-        <v>56430</v>
+        <v>78699</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3209,38 +3209,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554183</v>
+        <v>553806</v>
       </c>
       <c r="R26" t="n">
-        <v>6956477</v>
+        <v>6956742</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3273,11 +3269,6 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3304,10 +3295,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112111669</v>
+        <v>112111651</v>
       </c>
       <c r="B27" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3320,34 +3311,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>553926</v>
+        <v>554183</v>
       </c>
       <c r="R27" t="n">
-        <v>6956635</v>
+        <v>6956477</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3380,6 +3375,11 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3406,7 +3406,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112111673</v>
+        <v>112111669</v>
       </c>
       <c r="B28" t="n">
         <v>78699</v>
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>553806</v>
+        <v>553926</v>
       </c>
       <c r="R28" t="n">
-        <v>6956742</v>
+        <v>6956635</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112111678</v>
+        <v>112111639</v>
       </c>
       <c r="B2" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,54 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553780</v>
+        <v>554134</v>
       </c>
       <c r="R2" t="n">
-        <v>6956725</v>
+        <v>6956469</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112111676</v>
+        <v>112111636</v>
       </c>
       <c r="B3" t="n">
-        <v>89557</v>
+        <v>89553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554109</v>
+        <v>553867</v>
       </c>
       <c r="R3" t="n">
-        <v>6956442</v>
+        <v>6956705</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112111667</v>
+        <v>112111634</v>
       </c>
       <c r="B4" t="n">
-        <v>78699</v>
+        <v>89517</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -896,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>553963</v>
+        <v>554144</v>
       </c>
       <c r="R4" t="n">
-        <v>6956448</v>
+        <v>6956531</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111661</v>
+        <v>112111645</v>
       </c>
       <c r="B5" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,34 +1022,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553992</v>
+        <v>553976</v>
       </c>
       <c r="R5" t="n">
-        <v>6956255</v>
+        <v>6956688</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1062,6 +1086,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1088,10 +1117,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111650</v>
+        <v>112111680</v>
       </c>
       <c r="B6" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,38 +1133,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554121</v>
+        <v>554111</v>
       </c>
       <c r="R6" t="n">
-        <v>6956588</v>
+        <v>6956617</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1168,11 +1193,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1199,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111679</v>
+        <v>112111661</v>
       </c>
       <c r="B7" t="n">
-        <v>89557</v>
+        <v>78713</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1215,21 +1235,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1239,10 +1259,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554103</v>
+        <v>553992</v>
       </c>
       <c r="R7" t="n">
-        <v>6956607</v>
+        <v>6956255</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1301,10 +1321,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111674</v>
+        <v>112111663</v>
       </c>
       <c r="B8" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1341,10 +1361,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554219</v>
+        <v>553785</v>
       </c>
       <c r="R8" t="n">
-        <v>6956514</v>
+        <v>6956467</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1403,10 +1423,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112111653</v>
+        <v>112111671</v>
       </c>
       <c r="B9" t="n">
-        <v>78726</v>
+        <v>78713</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1415,25 +1435,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1443,10 +1463,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>553911</v>
+        <v>553877</v>
       </c>
       <c r="R9" t="n">
-        <v>6956632</v>
+        <v>6956664</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1505,10 +1525,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112111680</v>
+        <v>112111679</v>
       </c>
       <c r="B10" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1545,10 +1565,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554111</v>
+        <v>554103</v>
       </c>
       <c r="R10" t="n">
-        <v>6956617</v>
+        <v>6956607</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1607,10 +1627,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112111643</v>
+        <v>112111669</v>
       </c>
       <c r="B11" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1623,38 +1643,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>553753</v>
+        <v>553926</v>
       </c>
       <c r="R11" t="n">
-        <v>6956755</v>
+        <v>6956635</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1687,11 +1703,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1718,10 +1729,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112111648</v>
+        <v>112111653</v>
       </c>
       <c r="B12" t="n">
-        <v>56430</v>
+        <v>78740</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1730,42 +1741,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554064</v>
+        <v>553911</v>
       </c>
       <c r="R12" t="n">
-        <v>6956643</v>
+        <v>6956632</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1798,11 +1805,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1829,10 +1831,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112111670</v>
+        <v>112111667</v>
       </c>
       <c r="B13" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1869,10 +1871,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553908</v>
+        <v>553963</v>
       </c>
       <c r="R13" t="n">
-        <v>6956639</v>
+        <v>6956448</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1931,10 +1933,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112111639</v>
+        <v>112111681</v>
       </c>
       <c r="B14" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1947,54 +1949,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554134</v>
+        <v>554129</v>
       </c>
       <c r="R14" t="n">
-        <v>6956469</v>
+        <v>6956552</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2053,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112111637</v>
+        <v>112111676</v>
       </c>
       <c r="B15" t="n">
-        <v>89539</v>
+        <v>89571</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2069,21 +2051,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2093,10 +2075,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554150</v>
+        <v>554109</v>
       </c>
       <c r="R15" t="n">
-        <v>6956529</v>
+        <v>6956442</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2155,10 +2137,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112111647</v>
+        <v>112111673</v>
       </c>
       <c r="B16" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2171,38 +2153,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554072</v>
+        <v>553806</v>
       </c>
       <c r="R16" t="n">
-        <v>6956662</v>
+        <v>6956742</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2235,11 +2213,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2266,10 +2239,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112111671</v>
+        <v>112111655</v>
       </c>
       <c r="B17" t="n">
-        <v>78699</v>
+        <v>78714</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2282,21 +2255,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2306,10 +2279,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>553877</v>
+        <v>554217</v>
       </c>
       <c r="R17" t="n">
-        <v>6956664</v>
+        <v>6956513</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2368,10 +2341,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112111683</v>
+        <v>112111648</v>
       </c>
       <c r="B18" t="n">
-        <v>90099</v>
+        <v>56430</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2380,38 +2353,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>760</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>553873</v>
+        <v>554064</v>
       </c>
       <c r="R18" t="n">
-        <v>6956525</v>
+        <v>6956643</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2444,6 +2421,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2470,10 +2452,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112111682</v>
+        <v>112111651</v>
       </c>
       <c r="B19" t="n">
-        <v>77636</v>
+        <v>56430</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2486,34 +2468,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554049</v>
+        <v>554183</v>
       </c>
       <c r="R19" t="n">
-        <v>6956414</v>
+        <v>6956477</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2546,6 +2532,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2572,10 +2563,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112111666</v>
+        <v>112111642</v>
       </c>
       <c r="B20" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2588,34 +2579,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>553944</v>
+        <v>553780</v>
       </c>
       <c r="R20" t="n">
-        <v>6956459</v>
+        <v>6956725</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2674,10 +2673,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112111663</v>
+        <v>112111643</v>
       </c>
       <c r="B21" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2690,34 +2689,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>553785</v>
+        <v>553753</v>
       </c>
       <c r="R21" t="n">
-        <v>6956467</v>
+        <v>6956755</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2750,6 +2753,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2776,10 +2784,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112111645</v>
+        <v>112111666</v>
       </c>
       <c r="B22" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2792,38 +2800,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>553976</v>
+        <v>553944</v>
       </c>
       <c r="R22" t="n">
-        <v>6956688</v>
+        <v>6956459</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2856,11 +2860,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2887,10 +2886,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112111654</v>
+        <v>112111665</v>
       </c>
       <c r="B23" t="n">
-        <v>78700</v>
+        <v>78713</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2903,21 +2902,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2927,10 +2926,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>553963</v>
+        <v>553818</v>
       </c>
       <c r="R23" t="n">
-        <v>6956447</v>
+        <v>6956613</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2989,10 +2988,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112111636</v>
+        <v>112111659</v>
       </c>
       <c r="B24" t="n">
-        <v>89539</v>
+        <v>91002</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3005,21 +3004,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>2079</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3029,10 +3028,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>553867</v>
+        <v>553804</v>
       </c>
       <c r="R24" t="n">
-        <v>6956705</v>
+        <v>6956748</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3091,10 +3090,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112111659</v>
+        <v>112111654</v>
       </c>
       <c r="B25" t="n">
-        <v>90988</v>
+        <v>78714</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3107,21 +3106,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3131,10 +3130,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>553804</v>
+        <v>553963</v>
       </c>
       <c r="R25" t="n">
-        <v>6956748</v>
+        <v>6956447</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3193,10 +3192,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112111673</v>
+        <v>112111647</v>
       </c>
       <c r="B26" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3209,34 +3208,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>553806</v>
+        <v>554072</v>
       </c>
       <c r="R26" t="n">
-        <v>6956742</v>
+        <v>6956662</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3269,6 +3272,11 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3295,10 +3303,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112111651</v>
+        <v>112111678</v>
       </c>
       <c r="B27" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3311,38 +3319,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554183</v>
+        <v>553780</v>
       </c>
       <c r="R27" t="n">
-        <v>6956477</v>
+        <v>6956725</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3375,11 +3379,6 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3406,10 +3405,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112111669</v>
+        <v>112111674</v>
       </c>
       <c r="B28" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3446,10 +3445,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>553926</v>
+        <v>554219</v>
       </c>
       <c r="R28" t="n">
-        <v>6956635</v>
+        <v>6956514</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3508,10 +3507,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112111634</v>
+        <v>112111670</v>
       </c>
       <c r="B29" t="n">
-        <v>89503</v>
+        <v>78713</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3520,25 +3519,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3548,10 +3547,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554144</v>
+        <v>553908</v>
       </c>
       <c r="R29" t="n">
-        <v>6956531</v>
+        <v>6956639</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3610,10 +3609,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112111655</v>
+        <v>112111637</v>
       </c>
       <c r="B30" t="n">
-        <v>78700</v>
+        <v>89553</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3626,21 +3625,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3650,10 +3649,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554217</v>
+        <v>554150</v>
       </c>
       <c r="R30" t="n">
-        <v>6956513</v>
+        <v>6956529</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3712,10 +3711,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112111642</v>
+        <v>112111682</v>
       </c>
       <c r="B31" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3728,42 +3727,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>553780</v>
+        <v>554049</v>
       </c>
       <c r="R31" t="n">
-        <v>6956725</v>
+        <v>6956414</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3822,10 +3813,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112111640</v>
+        <v>112111683</v>
       </c>
       <c r="B32" t="n">
-        <v>56430</v>
+        <v>90113</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3834,42 +3825,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554117</v>
+        <v>553873</v>
       </c>
       <c r="R32" t="n">
-        <v>6956469</v>
+        <v>6956525</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3902,11 +3889,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3936,7 +3918,7 @@
         <v>112111662</v>
       </c>
       <c r="B33" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4035,10 +4017,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112111665</v>
+        <v>112111640</v>
       </c>
       <c r="B34" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4051,34 +4033,38 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>553818</v>
+        <v>554117</v>
       </c>
       <c r="R34" t="n">
-        <v>6956613</v>
+        <v>6956469</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4111,6 +4097,11 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4137,10 +4128,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112111681</v>
+        <v>112111650</v>
       </c>
       <c r="B35" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4153,34 +4144,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>554129</v>
+        <v>554121</v>
       </c>
       <c r="R35" t="n">
-        <v>6956552</v>
+        <v>6956588</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4213,6 +4208,11 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112111639</v>
+        <v>112111651</v>
       </c>
       <c r="B2" t="n">
         <v>56430</v>
@@ -713,37 +713,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554134</v>
+        <v>554183</v>
       </c>
       <c r="R2" t="n">
-        <v>6956469</v>
+        <v>6956477</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,6 +760,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112111636</v>
+        <v>112111680</v>
       </c>
       <c r="B3" t="n">
-        <v>89553</v>
+        <v>89571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -842,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553867</v>
+        <v>554111</v>
       </c>
       <c r="R3" t="n">
-        <v>6956705</v>
+        <v>6956617</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112111634</v>
+        <v>112111682</v>
       </c>
       <c r="B4" t="n">
-        <v>89517</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +905,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +933,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554144</v>
+        <v>554049</v>
       </c>
       <c r="R4" t="n">
-        <v>6956531</v>
+        <v>6956414</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1006,7 +995,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112111645</v>
+        <v>112111647</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1050,10 +1039,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553976</v>
+        <v>554072</v>
       </c>
       <c r="R5" t="n">
-        <v>6956688</v>
+        <v>6956662</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1117,10 +1106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112111680</v>
+        <v>112111639</v>
       </c>
       <c r="B6" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1133,34 +1122,54 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554111</v>
+        <v>554134</v>
       </c>
       <c r="R6" t="n">
-        <v>6956617</v>
+        <v>6956469</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1219,10 +1228,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112111661</v>
+        <v>112111678</v>
       </c>
       <c r="B7" t="n">
-        <v>78713</v>
+        <v>89571</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1235,21 +1244,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1259,10 +1268,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>553992</v>
+        <v>553780</v>
       </c>
       <c r="R7" t="n">
-        <v>6956255</v>
+        <v>6956725</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1321,10 +1330,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112111663</v>
+        <v>112111645</v>
       </c>
       <c r="B8" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1337,34 +1346,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>553785</v>
+        <v>553976</v>
       </c>
       <c r="R8" t="n">
-        <v>6956467</v>
+        <v>6956688</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1397,6 +1410,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1423,10 +1441,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112111671</v>
+        <v>112111653</v>
       </c>
       <c r="B9" t="n">
-        <v>78713</v>
+        <v>78740</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1435,25 +1453,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1463,10 +1481,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>553877</v>
+        <v>553911</v>
       </c>
       <c r="R9" t="n">
-        <v>6956664</v>
+        <v>6956632</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1525,10 +1543,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112111679</v>
+        <v>112111665</v>
       </c>
       <c r="B10" t="n">
-        <v>89571</v>
+        <v>78713</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1541,21 +1559,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1565,10 +1583,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554103</v>
+        <v>553818</v>
       </c>
       <c r="R10" t="n">
-        <v>6956607</v>
+        <v>6956613</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1627,10 +1645,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112111669</v>
+        <v>112111659</v>
       </c>
       <c r="B11" t="n">
-        <v>78713</v>
+        <v>91002</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1643,21 +1661,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>2079</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1667,10 +1685,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>553926</v>
+        <v>553804</v>
       </c>
       <c r="R11" t="n">
-        <v>6956635</v>
+        <v>6956748</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1729,10 +1747,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112111653</v>
+        <v>112111648</v>
       </c>
       <c r="B12" t="n">
-        <v>78740</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1741,38 +1759,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>553911</v>
+        <v>554064</v>
       </c>
       <c r="R12" t="n">
-        <v>6956632</v>
+        <v>6956643</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1805,6 +1827,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1831,7 +1858,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112111667</v>
+        <v>112111669</v>
       </c>
       <c r="B13" t="n">
         <v>78713</v>
@@ -1871,10 +1898,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553963</v>
+        <v>553926</v>
       </c>
       <c r="R13" t="n">
-        <v>6956448</v>
+        <v>6956635</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1933,7 +1960,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112111681</v>
+        <v>112111679</v>
       </c>
       <c r="B14" t="n">
         <v>89571</v>
@@ -1973,10 +2000,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554129</v>
+        <v>554103</v>
       </c>
       <c r="R14" t="n">
-        <v>6956552</v>
+        <v>6956607</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2035,10 +2062,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112111676</v>
+        <v>112111662</v>
       </c>
       <c r="B15" t="n">
-        <v>89571</v>
+        <v>78713</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2051,21 +2078,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2075,10 +2102,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554109</v>
+        <v>553886</v>
       </c>
       <c r="R15" t="n">
-        <v>6956442</v>
+        <v>6956306</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2137,7 +2164,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112111673</v>
+        <v>112111671</v>
       </c>
       <c r="B16" t="n">
         <v>78713</v>
@@ -2177,10 +2204,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>553806</v>
+        <v>553877</v>
       </c>
       <c r="R16" t="n">
-        <v>6956742</v>
+        <v>6956664</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2239,10 +2266,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112111655</v>
+        <v>112111663</v>
       </c>
       <c r="B17" t="n">
-        <v>78714</v>
+        <v>78713</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2255,21 +2282,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2279,10 +2306,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554217</v>
+        <v>553785</v>
       </c>
       <c r="R17" t="n">
-        <v>6956513</v>
+        <v>6956467</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2341,7 +2368,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112111648</v>
+        <v>112111642</v>
       </c>
       <c r="B18" t="n">
         <v>56430</v>
@@ -2377,7 +2404,11 @@
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2385,10 +2416,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554064</v>
+        <v>553780</v>
       </c>
       <c r="R18" t="n">
-        <v>6956643</v>
+        <v>6956725</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2421,11 +2452,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2452,10 +2478,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112111651</v>
+        <v>112111634</v>
       </c>
       <c r="B19" t="n">
-        <v>56430</v>
+        <v>89517</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2464,42 +2490,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554183</v>
+        <v>554144</v>
       </c>
       <c r="R19" t="n">
-        <v>6956477</v>
+        <v>6956531</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2532,11 +2554,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2563,10 +2580,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112111642</v>
+        <v>112111667</v>
       </c>
       <c r="B20" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2579,42 +2596,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>553780</v>
+        <v>553963</v>
       </c>
       <c r="R20" t="n">
-        <v>6956725</v>
+        <v>6956448</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2673,10 +2682,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112111643</v>
+        <v>112111661</v>
       </c>
       <c r="B21" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2689,38 +2698,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>553753</v>
+        <v>553992</v>
       </c>
       <c r="R21" t="n">
-        <v>6956755</v>
+        <v>6956255</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2753,11 +2758,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2784,10 +2784,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112111666</v>
+        <v>112111643</v>
       </c>
       <c r="B22" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2800,34 +2800,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>553944</v>
+        <v>553753</v>
       </c>
       <c r="R22" t="n">
-        <v>6956459</v>
+        <v>6956755</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2860,6 +2864,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2886,7 +2895,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112111665</v>
+        <v>112111666</v>
       </c>
       <c r="B23" t="n">
         <v>78713</v>
@@ -2926,10 +2935,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>553818</v>
+        <v>553944</v>
       </c>
       <c r="R23" t="n">
-        <v>6956613</v>
+        <v>6956459</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2988,10 +2997,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112111659</v>
+        <v>112111650</v>
       </c>
       <c r="B24" t="n">
-        <v>91002</v>
+        <v>56430</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3004,34 +3013,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>553804</v>
+        <v>554121</v>
       </c>
       <c r="R24" t="n">
-        <v>6956748</v>
+        <v>6956588</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3064,6 +3077,11 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3090,10 +3108,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112111654</v>
+        <v>112111673</v>
       </c>
       <c r="B25" t="n">
-        <v>78714</v>
+        <v>78713</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3106,21 +3124,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3130,10 +3148,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>553963</v>
+        <v>553806</v>
       </c>
       <c r="R25" t="n">
-        <v>6956447</v>
+        <v>6956742</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3192,10 +3210,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112111647</v>
+        <v>112111636</v>
       </c>
       <c r="B26" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3208,38 +3226,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554072</v>
+        <v>553867</v>
       </c>
       <c r="R26" t="n">
-        <v>6956662</v>
+        <v>6956705</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3272,11 +3286,6 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3303,10 +3312,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112111678</v>
+        <v>112111640</v>
       </c>
       <c r="B27" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3319,34 +3328,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>553780</v>
+        <v>554117</v>
       </c>
       <c r="R27" t="n">
-        <v>6956725</v>
+        <v>6956469</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3379,6 +3392,11 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3405,10 +3423,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112111674</v>
+        <v>112111681</v>
       </c>
       <c r="B28" t="n">
-        <v>78713</v>
+        <v>89571</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3421,21 +3439,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3445,10 +3463,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554219</v>
+        <v>554129</v>
       </c>
       <c r="R28" t="n">
-        <v>6956514</v>
+        <v>6956552</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3507,10 +3525,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112111670</v>
+        <v>112111676</v>
       </c>
       <c r="B29" t="n">
-        <v>78713</v>
+        <v>89571</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3523,21 +3541,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3547,10 +3565,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>553908</v>
+        <v>554109</v>
       </c>
       <c r="R29" t="n">
-        <v>6956639</v>
+        <v>6956442</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3609,10 +3627,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112111637</v>
+        <v>112111674</v>
       </c>
       <c r="B30" t="n">
-        <v>89553</v>
+        <v>78713</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3625,21 +3643,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3649,10 +3667,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554150</v>
+        <v>554219</v>
       </c>
       <c r="R30" t="n">
-        <v>6956529</v>
+        <v>6956514</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3711,10 +3729,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112111682</v>
+        <v>112111654</v>
       </c>
       <c r="B31" t="n">
-        <v>77650</v>
+        <v>78714</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3727,21 +3745,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3751,10 +3769,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>554049</v>
+        <v>553963</v>
       </c>
       <c r="R31" t="n">
-        <v>6956414</v>
+        <v>6956447</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3813,10 +3831,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112111683</v>
+        <v>112111655</v>
       </c>
       <c r="B32" t="n">
-        <v>90113</v>
+        <v>78714</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3825,25 +3843,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>760</v>
+        <v>2081</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3853,10 +3871,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>553873</v>
+        <v>554217</v>
       </c>
       <c r="R32" t="n">
-        <v>6956525</v>
+        <v>6956513</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3915,10 +3933,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112111662</v>
+        <v>112111637</v>
       </c>
       <c r="B33" t="n">
-        <v>78713</v>
+        <v>89553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3931,21 +3949,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3955,10 +3973,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>553886</v>
+        <v>554150</v>
       </c>
       <c r="R33" t="n">
-        <v>6956306</v>
+        <v>6956529</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4017,10 +4035,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112111640</v>
+        <v>112111670</v>
       </c>
       <c r="B34" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4033,38 +4051,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>554117</v>
+        <v>553908</v>
       </c>
       <c r="R34" t="n">
-        <v>6956469</v>
+        <v>6956639</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4097,11 +4111,6 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4128,10 +4137,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112111650</v>
+        <v>112111683</v>
       </c>
       <c r="B35" t="n">
-        <v>56430</v>
+        <v>90113</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4140,42 +4149,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>760</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>554121</v>
+        <v>553873</v>
       </c>
       <c r="R35" t="n">
-        <v>6956588</v>
+        <v>6956525</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4208,11 +4213,6 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 67578-2018.xlsx
+++ b/artfynd/A 67578-2018.xlsx
@@ -2895,10 +2895,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112111666</v>
+        <v>112111650</v>
       </c>
       <c r="B23" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2911,34 +2911,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>553944</v>
+        <v>554121</v>
       </c>
       <c r="R23" t="n">
-        <v>6956459</v>
+        <v>6956588</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2971,6 +2975,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2997,10 +3006,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112111650</v>
+        <v>112111666</v>
       </c>
       <c r="B24" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3013,38 +3022,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>lill-örasjön, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554121</v>
+        <v>553944</v>
       </c>
       <c r="R24" t="n">
-        <v>6956588</v>
+        <v>6956459</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3077,11 +3082,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>ringhack, äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
